--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,25 +534,25 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H2">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I2">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J2">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,33 +561,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0002846666666666666</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N2">
-        <v>0.0008539999999999999</v>
+        <v>0.034085</v>
       </c>
       <c r="O2">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0003509923868888888</v>
+        <v>0.02718120444111111</v>
       </c>
       <c r="R2">
-        <v>0.003158931482</v>
+        <v>0.24463083997</v>
       </c>
       <c r="S2">
-        <v>0.0002180420315439476</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="T2">
-        <v>0.0002180420315439476</v>
+        <v>0.3855356539589258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.232994333333333</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H3">
-        <v>3.698983</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I3">
-        <v>0.1643301600451615</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J3">
-        <v>0.1643301600451615</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.214258</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N3">
-        <v>0.642774</v>
+        <v>0.034085</v>
       </c>
       <c r="O3">
-        <v>0.9986731466002101</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.99867314660021</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2641788998713333</v>
+        <v>0.02453122824388888</v>
       </c>
       <c r="R3">
-        <v>2.377610098842</v>
+        <v>0.220781054195</v>
       </c>
       <c r="S3">
-        <v>0.1641121180136176</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="T3">
-        <v>0.1641121180136175</v>
+        <v>0.3479486401683811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.159122333333333</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H4">
-        <v>6.477366999999999</v>
+        <v>0.290273</v>
       </c>
       <c r="I4">
-        <v>0.2877620026318713</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J4">
-        <v>0.2877620026318713</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,33 +685,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0002846666666666666</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N4">
-        <v>0.0008539999999999999</v>
+        <v>0.034085</v>
       </c>
       <c r="O4">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0006146301575555553</v>
+        <v>0.001099328356111111</v>
       </c>
       <c r="R4">
-        <v>0.005531671417999999</v>
+        <v>0.009893955204999999</v>
       </c>
       <c r="S4">
-        <v>0.0003818179915224604</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="T4">
-        <v>0.0003818179915224603</v>
+        <v>0.01559277027650224</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.159122333333333</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H5">
-        <v>6.477366999999999</v>
+        <v>2.585138</v>
       </c>
       <c r="I5">
-        <v>0.2877620026318713</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J5">
-        <v>0.2877620026318713</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.214258</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N5">
-        <v>0.642774</v>
+        <v>0.034085</v>
       </c>
       <c r="O5">
-        <v>0.9986731466002101</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.99867314660021</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.4626092328953332</v>
+        <v>0.00979049208111111</v>
       </c>
       <c r="R5">
-        <v>4.163483096057999</v>
+        <v>0.08811442873</v>
       </c>
       <c r="S5">
-        <v>0.2873801846403489</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="T5">
-        <v>0.2873801846403488</v>
+        <v>0.1388674212450226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6462516666666667</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H6">
-        <v>1.938755</v>
+        <v>0.665872</v>
       </c>
       <c r="I6">
-        <v>0.08613067955120558</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J6">
-        <v>0.08613067955120557</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.0002846666666666666</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N6">
-        <v>0.0008539999999999999</v>
+        <v>0.034085</v>
       </c>
       <c r="O6">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.0001839663077777777</v>
+        <v>0.002521805235555555</v>
       </c>
       <c r="R6">
-        <v>0.00165569677</v>
+        <v>0.02269624712</v>
       </c>
       <c r="S6">
-        <v>0.0001142827849887351</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="T6">
-        <v>0.000114282784988735</v>
+        <v>0.03576904889381755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,418 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6462516666666667</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H7">
-        <v>1.938755</v>
+        <v>1.420139</v>
       </c>
       <c r="I7">
-        <v>0.08613067955120558</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J7">
-        <v>0.08613067955120557</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.214258</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N7">
-        <v>0.642774</v>
+        <v>0.034085</v>
       </c>
       <c r="O7">
-        <v>0.9986731466002101</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.99867314660021</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.1384645895966667</v>
+        <v>0.005378381979444445</v>
       </c>
       <c r="R7">
-        <v>1.24618130637</v>
+        <v>0.048405437815</v>
       </c>
       <c r="S7">
-        <v>0.08601639676621685</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="T7">
-        <v>0.08601639676621683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.056275666666667</v>
-      </c>
-      <c r="H8">
-        <v>6.168827</v>
-      </c>
-      <c r="I8">
-        <v>0.2740548762189265</v>
-      </c>
-      <c r="J8">
-        <v>0.2740548762189265</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.0002846666666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.0008539999999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="P8">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="Q8">
-        <v>0.0005853531397777777</v>
-      </c>
-      <c r="R8">
-        <v>0.005268178258</v>
-      </c>
-      <c r="S8">
-        <v>0.000363630644240094</v>
-      </c>
-      <c r="T8">
-        <v>0.000363630644240094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.056275666666667</v>
-      </c>
-      <c r="H9">
-        <v>6.168827</v>
-      </c>
-      <c r="I9">
-        <v>0.2740548762189265</v>
-      </c>
-      <c r="J9">
-        <v>0.2740548762189265</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.214258</v>
-      </c>
-      <c r="N9">
-        <v>0.642774</v>
-      </c>
-      <c r="O9">
-        <v>0.9986731466002101</v>
-      </c>
-      <c r="P9">
-        <v>0.99867314660021</v>
-      </c>
-      <c r="Q9">
-        <v>0.4405735117886666</v>
-      </c>
-      <c r="R9">
-        <v>3.965161606098</v>
-      </c>
-      <c r="S9">
-        <v>0.2736912455746864</v>
-      </c>
-      <c r="T9">
-        <v>0.2736912455746864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.09591500000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.287745</v>
-      </c>
-      <c r="I10">
-        <v>0.01278329257047005</v>
-      </c>
-      <c r="J10">
-        <v>0.01278329257047004</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.0002846666666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.0008539999999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="P10">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="Q10">
-        <v>2.730380333333333E-05</v>
-      </c>
-      <c r="R10">
-        <v>0.00024573423</v>
-      </c>
-      <c r="S10">
-        <v>1.696155520763767E-05</v>
-      </c>
-      <c r="T10">
-        <v>1.696155520763767E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.09591500000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.287745</v>
-      </c>
-      <c r="I11">
-        <v>0.01278329257047005</v>
-      </c>
-      <c r="J11">
-        <v>0.01278329257047004</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.214258</v>
-      </c>
-      <c r="N11">
-        <v>0.642774</v>
-      </c>
-      <c r="O11">
-        <v>0.9986731466002101</v>
-      </c>
-      <c r="P11">
-        <v>0.99867314660021</v>
-      </c>
-      <c r="Q11">
-        <v>0.02055055607</v>
-      </c>
-      <c r="R11">
-        <v>0.18495500463</v>
-      </c>
-      <c r="S11">
-        <v>0.01276633101526241</v>
-      </c>
-      <c r="T11">
-        <v>0.0127663310152624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>1.312594</v>
-      </c>
-      <c r="H12">
-        <v>3.937782</v>
-      </c>
-      <c r="I12">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J12">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.0002846666666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.0008539999999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="P12">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="Q12">
-        <v>0.0003736517586666666</v>
-      </c>
-      <c r="R12">
-        <v>0.003362865828</v>
-      </c>
-      <c r="S12">
-        <v>0.0002321183922870662</v>
-      </c>
-      <c r="T12">
-        <v>0.0002321183922870662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>1.312594</v>
-      </c>
-      <c r="H13">
-        <v>3.937782</v>
-      </c>
-      <c r="I13">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J13">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.214258</v>
-      </c>
-      <c r="N13">
-        <v>0.642774</v>
-      </c>
-      <c r="O13">
-        <v>0.9986731466002101</v>
-      </c>
-      <c r="P13">
-        <v>0.99867314660021</v>
-      </c>
-      <c r="Q13">
-        <v>0.281233765252</v>
-      </c>
-      <c r="R13">
-        <v>2.531103887268</v>
-      </c>
-      <c r="S13">
-        <v>0.1747068705900781</v>
-      </c>
-      <c r="T13">
-        <v>0.1747068705900781</v>
+        <v>0.07628646545735089</v>
       </c>
     </row>
   </sheetData>
